--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>customr_id</t>
   </si>
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -390,6 +390,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="C3">
+        <v>1250</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>customr_id</t>
   </si>
@@ -37,6 +37,15 @@
   </si>
   <si>
     <t>PRJ-01</t>
+  </si>
+  <si>
+    <t>Test 2 Co</t>
+  </si>
+  <si>
+    <t>hf</t>
+  </si>
+  <si>
+    <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
   </si>
 </sst>
 </file>
@@ -354,10 +363,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,6 +410,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>12500</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>customr_id</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>tessssssssssssssssssssssssssssssssssssssssssssssssssssssste lengthhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh</t>
+  </si>
+  <si>
+    <t>Test 4</t>
+  </si>
+  <si>
+    <t>PRJ-02</t>
+  </si>
+  <si>
+    <t>Test 4 Dup1675</t>
   </si>
 </sst>
 </file>
@@ -363,7 +372,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -412,30 +421,55 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1543</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>12500</v>
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1004</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>12500</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,30 +421,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1543</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1543</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,7 +463,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -473,6 +473,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D7">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>customr_id</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Test 4 Dup1675</t>
+  </si>
+  <si>
+    <t>Test 6</t>
+  </si>
+  <si>
+    <t>ytfd</t>
+  </si>
+  <si>
+    <t>PRJ-03</t>
+  </si>
+  <si>
+    <t>Test Wrong ID</t>
   </si>
 </sst>
 </file>
@@ -372,13 +384,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="131.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -449,27 +464,69 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>12500</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>167</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1004</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>12500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>1005</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -102,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,16 +388,17 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="131.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -410,74 +412,74 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1001</v>
+      <c r="A2" s="1">
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C2">
-        <v>1200</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1002</v>
+      <c r="A3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1003</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C4">
+        <v>1250</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>1004</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>1543</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1006</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>512</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
@@ -491,48 +493,49 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1004</v>
+      <c r="A8" s="1">
+        <v>1005</v>
       </c>
       <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>512</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C10">
         <v>12500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1005</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>54</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:D7">
+  <sortState ref="A2:D10">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>customr_id</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Test Wrong ID</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,6 +534,20 @@
         <v>5</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>8700</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D10">
     <sortCondition ref="A2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>customr_id</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>ekijkhk</t>
   </si>
 </sst>
 </file>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,6 +551,20 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>5465</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D10">
     <sortCondition ref="A2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>customr_id</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>ekijkhk</t>
+  </si>
+  <si>
+    <t>test 9</t>
+  </si>
+  <si>
+    <t>PRJ-2</t>
   </si>
 </sst>
 </file>
@@ -391,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,6 +571,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>525</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D10">
     <sortCondition ref="A2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>customr_id</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>PRJ-2</t>
+  </si>
+  <si>
+    <t>test 10</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>PRJ-09</t>
+  </si>
+  <si>
+    <t>Test Dup</t>
+  </si>
+  <si>
+    <t>Test Coorect</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>PRJ-04</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -397,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,6 +609,76 @@
         <v>19</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15">
+        <v>152</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16">
+        <v>1520</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>155</v>
+      </c>
+      <c r="D18" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D10">
     <sortCondition ref="A2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>customr_id</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>ok test</t>
+  </si>
+  <si>
+    <t>PRJ-05</t>
+  </si>
+  <si>
+    <t>test PRJ</t>
+  </si>
+  <si>
+    <t>PRJ-564</t>
   </si>
 </sst>
 </file>
@@ -421,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +691,34 @@
         <v>5</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19">
+        <v>1522</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D10">
     <sortCondition ref="A2"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>customr_id</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>PRJ-564</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Deactive</t>
+  </si>
+  <si>
+    <t>Suspend</t>
   </si>
 </sst>
 </file>
@@ -433,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,7 +457,7 @@
     <col min="2" max="2" width="131.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +470,11 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -472,8 +487,11 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -486,8 +504,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="D4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -511,8 +535,11 @@
       <c r="D5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -525,8 +552,11 @@
       <c r="D6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -539,8 +569,11 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
@@ -550,8 +583,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
@@ -564,8 +600,11 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
@@ -578,8 +617,11 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1008</v>
       </c>
@@ -592,8 +634,11 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10001</v>
       </c>
@@ -606,8 +651,11 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1009</v>
       </c>
@@ -620,8 +668,11 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1010</v>
       </c>
@@ -634,8 +685,11 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1003</v>
       </c>
@@ -648,8 +702,11 @@
       <c r="D15" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1011</v>
       </c>
@@ -662,8 +719,11 @@
       <c r="D16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1012</v>
       </c>
@@ -676,8 +736,11 @@
       <c r="D17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -690,8 +753,11 @@
       <c r="D18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1013</v>
       </c>
@@ -704,8 +770,11 @@
       <c r="D19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1014</v>
       </c>
@@ -717,6 +786,9 @@
       </c>
       <c r="D20" t="s">
         <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
   <si>
     <t>customr_id</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>Suspend</t>
+  </si>
+  <si>
+    <t>Activef</t>
   </si>
 </sst>
 </file>
@@ -445,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -787,7 +790,24 @@
       <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,159 +471,149 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Client_Node_0</t>
+          <t>Company_0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1367.31</v>
+        <v>2965.31</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>20/01/2026 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>46042.67946717237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2001</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Client_Node_1</t>
+          <t>Company_1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>983.77</v>
+        <v>4571.35</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-379</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>46041.67946717237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2002</v>
+        <v>1002</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Client_Node_2</t>
+          <t>Company_2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1200.99</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-879</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>46040.67946717237</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2003</v>
+        <v>1003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Client_Node_3</t>
+          <t>Company_3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1049.47</v>
+        <v>4252.22</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-337</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>46039.67946717237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2004</v>
+        <v>1004</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Client_Node_4</t>
+          <t>Company_4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>500</v>
+        <v>3088.9</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-880</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>46038.67946717237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7777</v>
+        <v>1005</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Client_Node_5</t>
+          <t>Company_5</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1553.43</v>
+        <v>2946.5</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-950</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -627,279 +621,259 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F7" s="2" t="n">
+        <v>46037.67946717237</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7777</v>
+        <v>1006</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Client_Node_6</t>
+          <t>Company_6</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>500</v>
+        <v>3534.87</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-456</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>46036.67946717237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2007</v>
+        <v>1007</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Client_Node_7</t>
+          <t>Company_7</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4588.03</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-120</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>46035.67946717237</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2008</v>
+        <v>1008</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Client_Node_8</t>
+          <t>Company_8</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>682.88</v>
+        <v>2390.4</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-811</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>46034.67946717237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2009</v>
+        <v>1009</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Client_Node_9</t>
+          <t>Company_9</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3749.58</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-842</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>46033.67946717237</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2010</v>
+        <v>1005</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Client_Node_10</t>
+          <t>Company_10</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>500</v>
+        <v>1729.65</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-813</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10/01/2026 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>46032.67946717237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2011</v>
+        <v>1011</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Client_Node_11</t>
+          <t>Company_11</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>820.5599999999999</v>
+        <v>0</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-944</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>46031.67946717237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2012</v>
+        <v>1012</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Client_Node_12</t>
+          <t>Company_12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2129.95</v>
+        <v>0</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-101</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>46030.67946717237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2013</v>
+        <v>1013</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Client_Node_13</t>
+          <t>Company_13</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2382.3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-189</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>46029.67946717237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2014</v>
+        <v>1014</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Client_Node_14</t>
+          <t>Company_14</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>500</v>
+        <v>2657.86</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-706</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>46028.67946717237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>101</v>
+        <v>1015</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Client_Node_15</t>
+          <t>Company_15</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1584.24</v>
+        <v>1483.34</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -907,27 +881,25 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F17" s="2" t="n">
+        <v>46027.67946717237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2016</v>
+        <v>1016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Client_Node_16</t>
+          <t>Company_16</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2159.27</v>
+        <v>1596.97</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-449</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -935,55 +907,51 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F18" s="2" t="n">
+        <v>46026.67946717237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2017</v>
+        <v>1017</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Client_Node_17</t>
+          <t>Company_17</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1269.74</v>
+        <v>1412.15</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-977</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="n">
+        <v>46025.67946717237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2018</v>
+        <v>1018</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Client_Node_18</t>
+          <t>Company_18</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2261.02</v>
+        <v>1663.02</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-505</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -991,111 +959,103 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F20" s="2" t="n">
+        <v>46024.67946717237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2019</v>
+        <v>1019</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Client_Node_19</t>
+          <t>Company_19</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>2613.24</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-877</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>46023.67946717237</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Client_Node_20</t>
+          <t xml:space="preserve">  CleanMe  </t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>603.8099999999999</v>
+        <v>4455.08</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-272</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>31/12/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>46022.67946717237</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2021</v>
+        <v>1021</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Client_Node_21</t>
+          <t>Company_21</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1115.15</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-268</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="n">
+        <v>46021.67946717237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2022</v>
+        <v>1022</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Client_Node_22</t>
+          <t>Company_22</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1757.19</v>
+        <v>4943.96</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-177</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1103,55 +1063,51 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F24" s="2" t="n">
+        <v>46020.67946717237</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2023</v>
+        <v>1023</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Client_Node_23</t>
+          <t>Company_23</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>825.34</v>
+        <v>2606.34</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-563</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="n">
+        <v>46019.67946717237</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2024</v>
+        <v>1024</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Client_Node_24</t>
+          <t>Company_24</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1833.06</v>
+        <v>2551.16</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-225</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1159,141 +1115,129 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F26" s="2" t="n">
+        <v>46018.67946717237</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5000 </t>
-        </is>
+      <c r="A27" t="n">
+        <v>1025</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Client_Node_25</t>
+          <t>Company_25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>4492.97</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-581</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>46017.67946717237</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2026</v>
+        <v>1026</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Client_Node_26</t>
+          <t>Company_26</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2334.6</v>
+        <v>2961.88</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-350</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>46016.67946717237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2027</v>
+        <v>1027</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Client_Node_27</t>
+          <t>Company_27</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2079.24</v>
+        <v>0</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-938</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="n">
+        <v>46015.67946717237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2028</v>
+        <v>1028</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Client_Node_28</t>
+          <t>Company_28</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>854.21</v>
+        <v>1398.55</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-182</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>46014.67946717237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2029</v>
+        <v>1029</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Client_Node_29</t>
+          <t>Company_29</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1565.89</v>
+        <v>4352.83</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-737</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1301,111 +1245,103 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F31" s="2" t="n">
+        <v>46013.67946717237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2030</v>
+        <v>1030</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Client_Node_30</t>
+          <t>Company_30</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1947.81</v>
+        <v>4192.85</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>21/12/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>46047.67946717237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2031</v>
+        <v>1031</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Client_Node_31</t>
+          <t>Company_31</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2244.92</v>
+        <v>2539.09</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-443</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>46011.67946717237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2032</v>
+        <v>1032</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Client_Node_32</t>
+          <t>Company_32</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1198.35</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-457</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>46010.67946717237</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2033</v>
+        <v>1033</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Client_Node_33</t>
+          <t>Company_33</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2224.01</v>
+        <v>3752.12</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-976</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1413,27 +1349,25 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F35" s="2" t="n">
+        <v>46009.67946717237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2034</v>
+        <v>1034</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Client_Node_34</t>
+          <t>Company_34</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2019.63</v>
+        <v>3715.11</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-888</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1441,83 +1375,77 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F36" s="2" t="n">
+        <v>46008.67946717237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2035</v>
+        <v>1035</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AB</t>
+          <t>Company_35</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2141.96</v>
+        <v>3519.61</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-341</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>46007.67946717237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2036</v>
+        <v>1036</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Client_Node_36</t>
+          <t>Company_36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1783.97</v>
+        <v>0</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-109</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>46006.67946717237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2037</v>
+        <v>1037</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Client_Node_37</t>
+          <t>Company_37</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1332.41</v>
+        <v>3805.16</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-389</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1525,139 +1453,129 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F39" s="2" t="n">
+        <v>46005.67946717237</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2038</v>
+        <v>1038</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Client_Node_38</t>
+          <t>Company_38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2432</v>
+        <v>0</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-498</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>46004.67946717237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2039</v>
+        <v>1039</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Client_Node_39</t>
+          <t>Company_39</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1355.74</v>
+        <v>2313.98</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-923</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>46003.67946717237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2040</v>
+        <v>1040</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Client_Node_40</t>
+          <t>Company_40</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2484.9</v>
+        <v>500</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-985</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>11/12/2025 14:08</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>45321.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2041</v>
+        <v>1041</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Client_Node_41</t>
+          <t>Company_41</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1050.52</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-868</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>46001.67946717237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2042</v>
+        <v>1042</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Client_Node_42</t>
+          <t>Company_42</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2151.45</v>
+        <v>4212.44</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-253</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1665,27 +1583,25 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F44" s="2" t="n">
+        <v>46000.67946717237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2043</v>
+        <v>1043</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Client_Node_43</t>
+          <t>Company_43</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1903.36</v>
+        <v>1108.79</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-983</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1693,167 +1609,155 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F45" s="2" t="n">
+        <v>45999.67946717237</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2044</v>
+        <v>1044</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Client_Node_44</t>
+          <t>Company_44</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1358.35</v>
+        <v>1750.11</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-700</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>45998.67946717237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2045</v>
+        <v>1045</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">   Customer_Clean   </t>
+          <t>Company_45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>2094.5</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>45997.67946717237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2046</v>
+        <v>1046</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Client_Node_46</t>
+          <t>Company_46</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2413.28</v>
+        <v>0</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-727</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>45996.67946717237</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2047</v>
+        <v>1047</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Client_Node_47</t>
+          <t>Company_47</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1131.33</v>
+        <v>3175.92</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-476</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>45995.67946717237</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2048</v>
+        <v>1048</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Client_Node_48</t>
+          <t>Company_48</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1923.44</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-285</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>45994.67946717237</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2049</v>
+        <v>1049</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Client_Node_49</t>
+          <t>Company_49</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1216.34</v>
+        <v>1893.96</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-585</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1861,27 +1765,25 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F51" s="2" t="n">
+        <v>45993.67946717237</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2050</v>
+        <v>1050</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Client_Node_50</t>
+          <t>Company_50</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1566.83</v>
+        <v>4674.8</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-931</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1889,19 +1791,17 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>01/12/2025 14:08</t>
-        </is>
+      <c r="F52" s="2" t="n">
+        <v>45992.67946717237</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2051</v>
+        <v>1051</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Client_Node_51</t>
+          <t>Company_51</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1909,7 +1809,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-584</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1917,55 +1817,51 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F53" s="2" t="n">
+        <v>45991.67946717237</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2052</v>
+        <v>1052</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Client_Node_52</t>
+          <t>Company_52</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1455.46</v>
+        <v>0</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-450</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>45990.67946717237</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2053</v>
+        <v>1053</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Client_Node_53</t>
+          <t>Company_53</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2018.7</v>
+        <v>1895.49</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-226</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1973,111 +1869,103 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F55" s="2" t="n">
+        <v>45989.67946717237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2054</v>
+        <v>1054</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Client_Node_54</t>
+          <t>Company_54</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>728.08</v>
+        <v>0</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-997</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>45988.67946717237</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2055</v>
+        <v>1055</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Client_Node_55</t>
+          <t>Company_55</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1250.38</v>
+        <v>2414.37</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-218</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Active </t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>45987.67946717237</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2056</v>
+        <v>1056</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Client_Node_56</t>
+          <t>Company_56</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>500</v>
+        <v>3164.41</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-885</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>45986.67946717237</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2057</v>
+        <v>1057</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Client_Node_57</t>
+          <t>Company_57</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1797.01</v>
+        <v>2753.57</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-860</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2085,83 +1973,77 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F59" s="2" t="n">
+        <v>45985.67946717237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2058</v>
+        <v>1058</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Client_Node_58</t>
+          <t>Company_58</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>500</v>
+        <v>3346.92</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-656</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>45984.67946717237</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2059</v>
+        <v>1059</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Client_Node_59</t>
+          <t>Company_59</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1291.08</v>
+        <v>0</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-382</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>45983.67946717237</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2060</v>
+        <v>1060</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Client_Node_60</t>
+          <t>Company_60</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2079.72</v>
+        <v>3644.39</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2169,55 +2051,51 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>21/11/2025 14:08</t>
-        </is>
+      <c r="F62" s="2" t="n">
+        <v>45982.67946717237</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2061</v>
+        <v>1061</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Client_Node_61</t>
+          <t>Company_61</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1082.23</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-903</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>45981.67946717237</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2062</v>
+        <v>1062</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Client_Node_62</t>
+          <t>Company_62</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1204.43</v>
+        <v>4961.25</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-698</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2225,55 +2103,51 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F64" s="2" t="n">
+        <v>45980.67946717237</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2063</v>
+        <v>1063</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Client_Node_63</t>
+          <t>Company_63</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>864.99</v>
+        <v>0</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-306</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="n">
+        <v>45979.67946717237</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2064</v>
+        <v>1064</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Client_Node_64</t>
+          <t>Company_64</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-734</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2281,83 +2155,77 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F66" s="2" t="n">
+        <v>45978.67946717237</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2065</v>
+        <v>1065</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Client_Node_65</t>
+          <t>Company_65</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1068.5</v>
+        <v>500</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-351</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Pending</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="n">
+        <v>45977.67946717237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2066</v>
+        <v>1066</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Client_Node_66</t>
+          <t>Company_66</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>999.9</v>
+        <v>3395.27</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-424</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>45976.67946717237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2067</v>
+        <v>1067</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Client_Node_67</t>
+          <t>Company_67</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1742.02</v>
+        <v>3933.29</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-106</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2365,27 +2233,25 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F69" s="2" t="n">
+        <v>45975.67946717237</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2068</v>
+        <v>1068</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Client_Node_68</t>
+          <t>Company_68</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1287.32</v>
+        <v>2422.8</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-196</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2393,111 +2259,103 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F70" s="2" t="n">
+        <v>45974.67946717237</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2069</v>
+        <v>1069</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Client_Node_69</t>
+          <t>Company_69</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2438.2</v>
+        <v>0</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-583</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="n">
+        <v>45973.67946717237</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2070</v>
+        <v>1070</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Client_Node_70</t>
+          <t>Company_70</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1846.42</v>
+        <v>500</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-871</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>11/11/2025 14:08</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="n">
+        <v>45972.67946717237</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2071</v>
+        <v>1071</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Client_Node_71</t>
+          <t>Company_71</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>4874.64</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-273</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="n">
+        <v>45971.67946717237</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2072</v>
+        <v>1072</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Client_Node_72</t>
+          <t>Company_72</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1426.29</v>
+        <v>3250.33</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-366</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2505,83 +2363,77 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F74" s="2" t="n">
+        <v>45970.67946717237</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2073</v>
+        <v>1073</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Client_Node_73</t>
+          <t>Company_73</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1120.65</v>
+        <v>3602.25</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-409</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>45969.67946717237</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2074</v>
+        <v>1074</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Client_Node_74</t>
+          <t>Company_74</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2066.23</v>
+        <v>4472.66</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-790</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>45968.67946717237</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2075</v>
+        <v>1075</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Client_Node_75</t>
+          <t>Company_75</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>-10</v>
+        <v>500</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2589,27 +2441,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F77" s="2" t="n">
+        <v>45967.67946717237</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2076</v>
+        <v>1076</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Client_Node_76</t>
+          <t>Company_76</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-250</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2617,55 +2467,51 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F78" s="2" t="n">
+        <v>45966.67946717237</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2077</v>
+        <v>1077</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Client_Node_77</t>
+          <t>Company_77</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1361.29</v>
+        <v>1730.46</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-981</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>45965.67946717237</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2078</v>
+        <v>1078</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Client_Node_78</t>
+          <t>Company_78</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2411.27</v>
+        <v>3946.39</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-948</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2673,139 +2519,129 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F80" s="2" t="n">
+        <v>45964.67946717237</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2079</v>
+        <v>1079</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Client_Node_79</t>
+          <t>Company_79</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1307.72</v>
+        <v>2710.22</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-127</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>45963.67946717237</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2080</v>
+        <v>1080</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Client_Node_80</t>
+          <t>Company_80</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2173.66</v>
+        <v>2107.11</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-437</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>01/11/2025 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>45962.67946717237</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2081</v>
+        <v>1081</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Client_Node_81</t>
+          <t>Company_81</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>695.47</v>
+        <v>1389.97</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-542</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>45961.67946717237</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2082</v>
+        <v>1082</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Client_Node_82</t>
+          <t>Company_82</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1822.7</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-511</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>45960.67946717237</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2083</v>
+        <v>1083</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Client_Node_83</t>
+          <t>Company_83</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1218.65</v>
+        <v>1914.52</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-751</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2813,139 +2649,129 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F85" s="2" t="n">
+        <v>45959.67946717237</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2084</v>
+        <v>1084</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Client_Node_84</t>
+          <t>Company_84</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1706.01</v>
+        <v>2435.37</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-778</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>45958.67946717237</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2085</v>
+        <v>1085</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Client_Node_85</t>
+          <t>Company_85</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>994.6</v>
+        <v>2482.43</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-770</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>2026-01-30 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>45957.67946717237</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2086</v>
+        <v>1086</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Client_Node_86</t>
+          <t>Company_86</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>500</v>
+        <v>1075.83</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-458</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>45956.67946717237</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2087</v>
+        <v>1087</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Client_Node_87</t>
+          <t>Company_87</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>4672.28</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-524</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>45955.67946717237</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2088</v>
+        <v>1088</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Client_Node_88</t>
+          <t>Company_88</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-303</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -2953,83 +2779,77 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F90" s="2" t="n">
+        <v>45954.67946717237</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2089</v>
+        <v>1089</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Client_Node_89</t>
+          <t>Company_89</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>4921.38</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-325</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>45953.67946717237</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2090</v>
+        <v>1090</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Client_Node_90</t>
+          <t>Company_90</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>500</v>
+        <v>2694.9</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>22/10/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>45952.67946717237</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2091</v>
+        <v>1091</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Client_Node_91</t>
+          <t>Company_91</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2223.84</v>
+        <v>3276.87</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3037,55 +2857,51 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F93" s="2" t="n">
+        <v>45951.67946717237</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2092</v>
+        <v>1092</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Client_Node_92</t>
+          <t>Company_92</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>500</v>
+        <v>4512.15</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-644</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>45950.67946717237</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2093</v>
+        <v>1093</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Client_Node_93</t>
+          <t>Company_93</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>691.42</v>
+        <v>4301.01</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3093,55 +2909,51 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F95" s="2" t="n">
+        <v>45949.67946717237</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2094</v>
+        <v>1094</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Client_Node_94</t>
+          <t>Company_94</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>500</v>
+        <v>2085.99</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-518</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>45948.67946717237</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2095</v>
+        <v>1095</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Client_Node_95</t>
+          <t>Company_95</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-284</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3149,27 +2961,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F97" s="2" t="n">
+        <v>45947.67946717237</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2096</v>
+        <v>1096</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Client_Node_96</t>
+          <t>Company_96</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2260.96</v>
+        <v>1827.61</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-340</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3177,167 +2987,155 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F98" s="2" t="n">
+        <v>45946.67946717237</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2097</v>
+        <v>1097</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Client_Node_97</t>
+          <t>Company_97</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>3441.77</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-772</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>45945.67946717237</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2098</v>
+        <v>1098</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Client_Node_98</t>
+          <t>Company_98</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>500</v>
+        <v>4315.01</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-538</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>45944.67946717237</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2099</v>
+        <v>1099</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Client_Node_99</t>
+          <t>Company_99</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1512.04</v>
+        <v>2664.09</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-961</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>45943.67946717237</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2100</v>
+        <v>1100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Client_Node_100</t>
+          <t>Company_100</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2418.45</v>
+        <v>1912.77</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-710</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>12/10/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>45942.67946717237</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2101</v>
+        <v>1101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Client_Node_101</t>
+          <t>Company_101</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>2133.09</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-567</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>45941.67946717237</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2102</v>
+        <v>1102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Client_Node_102</t>
+          <t>Company_102</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3345,167 +3143,155 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F104" s="2" t="n">
+        <v>45940.67946717237</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2103</v>
+        <v>1103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Client_Node_103</t>
+          <t>Company_103</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1821.92</v>
+        <v>2218.85</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-139</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>45939.67946717237</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2104</v>
+        <v>1104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Client_Node_104</t>
+          <t>Company_104</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2367.5</v>
+        <v>2431.92</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-527</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>45938.67946717237</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2105</v>
+        <v>1105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Client_Node_105</t>
+          <t>Company_105</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>641.45</v>
+        <v>2346.85</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>45937.67946717237</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2106</v>
+        <v>1106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Client_Node_106</t>
+          <t>Company_106</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>500</v>
+        <v>1011.63</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-900</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>45936.67946717237</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2107</v>
+        <v>1107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Client_Node_107</t>
+          <t>Company_107</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1906.33</v>
+        <v>2950.09</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-610</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>45935.67946717237</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2108</v>
+        <v>1108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Client_Node_108</t>
+          <t>Company_108</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-919</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -3513,27 +3299,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F110" s="2" t="n">
+        <v>45934.67946717237</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>2109</v>
+        <v>1109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Client_Node_109</t>
+          <t>Company_109</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1342.37</v>
+        <v>3558.02</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-210</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3541,111 +3325,103 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F111" s="2" t="n">
+        <v>45933.67946717237</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2110</v>
+        <v>1110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Client_Node_110</t>
+          <t>Company_110</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>500</v>
+        <v>2309.16</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-517</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>02/10/2025 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>45932.67946717237</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2111</v>
+        <v>1111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Client_Node_111</t>
+          <t>Company_111</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>1721.96</v>
+        <v>2150.69</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-368</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>45931.67946717237</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2112</v>
+        <v>1112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Client_Node_112</t>
+          <t>Company_112</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>500</v>
+        <v>1379.48</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-602</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>45930.67946717237</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2113</v>
+        <v>1113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Client_Node_113</t>
+          <t>Company_113</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1747.11</v>
+        <v>4806.71</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-326</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -3653,27 +3429,25 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F115" s="2" t="n">
+        <v>45929.67946717237</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2114</v>
+        <v>1114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Client_Node_114</t>
+          <t>Company_114</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1061.7</v>
+        <v>3960.98</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-400</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3681,27 +3455,25 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F116" s="2" t="n">
+        <v>45928.67946717237</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>2115</v>
+        <v>1115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Client_Node_115</t>
+          <t>Company_115</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-874</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -3709,83 +3481,77 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F117" s="2" t="n">
+        <v>45927.67946717237</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2116</v>
+        <v>1116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Client_Node_116</t>
+          <t>Company_116</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1795.35</v>
+        <v>1189.1</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-590</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>45926.67946717237</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2117</v>
+        <v>1117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Client_Node_117</t>
+          <t>Company_117</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>1236.99</v>
+        <v>2642.77</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-709</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>45925.67946717237</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2118</v>
+        <v>1118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Client_Node_118</t>
+          <t>Company_118</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1670.6</v>
+        <v>1229.35</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-880</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -3793,19 +3559,17 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F120" s="2" t="n">
+        <v>45924.67946717237</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2119</v>
+        <v>1119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Client_Node_119</t>
+          <t>Company_119</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -3813,7 +3577,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-190</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -3821,47 +3585,43 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F121" s="2" t="n">
+        <v>45923.67946717237</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2120</v>
+        <v>1120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Client_Node_120</t>
+          <t>Company_120</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>500</v>
+        <v>2624.53</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>22/09/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>45922.67946717237</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>2121</v>
+        <v>1121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Client_Node_121</t>
+          <t>Company_121</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3869,7 +3629,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-466</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3877,83 +3637,77 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F123" s="2" t="n">
+        <v>45921.67946717237</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>2122</v>
+        <v>1122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Client_Node_122</t>
+          <t>Company_122</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>871.85</v>
+        <v>0</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-362</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>45920.67946717237</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2123</v>
+        <v>1123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Client_Node_123</t>
+          <t>Company_123</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1522.35</v>
+        <v>0</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-990</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>45919.67946717237</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2124</v>
+        <v>1124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Client_Node_124</t>
+          <t>Company_124</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-632</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -3961,83 +3715,77 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F126" s="2" t="n">
+        <v>45918.67946717237</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>2125</v>
+        <v>1125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Client_Node_125</t>
+          <t>Company_125</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>1553.65</v>
+        <v>500</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-921</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>45917.67946717237</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2126</v>
+        <v>1126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Client_Node_126</t>
+          <t>Company_126</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>1271.84</v>
+        <v>0</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-601</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>45916.67946717237</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2127</v>
+        <v>1127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Client_Node_127</t>
+          <t>Company_127</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>2343.3</v>
+        <v>1773.73</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-285</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4045,111 +3793,103 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F129" s="2" t="n">
+        <v>45915.67946717237</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>2128</v>
+        <v>1128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Client_Node_128</t>
+          <t>Company_128</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1011.81</v>
+        <v>3098.39</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-138</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>45914.67946717237</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2129</v>
+        <v>1129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Client_Node_129</t>
+          <t>Company_129</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1614.74</v>
+        <v>0</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-883</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>45913.67946717237</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2130</v>
+        <v>1130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Client_Node_130</t>
+          <t>Company_130</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>2125.3</v>
+        <v>2172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-985</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>12/09/2025 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>45912.67946717237</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2131</v>
+        <v>1131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Client_Node_131</t>
+          <t>Company_131</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>519.13</v>
+        <v>2920.68</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-962</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -4157,195 +3897,181 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F133" s="2" t="n">
+        <v>45911.67946717237</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>2132</v>
+        <v>1132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Client_Node_132</t>
+          <t>Company_132</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>500</v>
+        <v>4923.31</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-484</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>45910.67946717237</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2133</v>
+        <v>1133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Client_Node_133</t>
+          <t>Company_133</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2051.8</v>
+        <v>4534.2</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-694</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>45909.67946717237</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2134</v>
+        <v>1134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Client_Node_134</t>
+          <t>Company_134</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1834.47</v>
+        <v>1805.47</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-823</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>45908.67946717237</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>2135</v>
+        <v>1135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Client_Node_135</t>
+          <t>Company_135</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2253.24</v>
+        <v>2173.73</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>45907.67946717237</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2136</v>
+        <v>1136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Client_Node_136</t>
+          <t>Company_136</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2273.65</v>
+        <v>0</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-887</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>45906.67946717237</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2137</v>
+        <v>1137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Client_Node_137</t>
+          <t>Company_137</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>2076.92</v>
+        <v>0</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-775</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>45905.67946717237</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>2138</v>
+        <v>1138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Client_Node_138</t>
+          <t>Company_138</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1245.31</v>
+        <v>1564.72</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-157</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -4353,83 +4079,77 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F140" s="2" t="n">
+        <v>45904.67946717237</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2139</v>
+        <v>1139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Client_Node_139</t>
+          <t>Company_139</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>4770.43</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-354</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>45903.67946717237</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2140</v>
+        <v>1140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Client_Node_140</t>
+          <t>Company_140</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>500</v>
+        <v>3772.16</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-931</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>02/09/2025 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>45902.67946717237</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2141</v>
+        <v>1141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Client_Node_141</t>
+          <t>Company_141</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1838.05</v>
+        <v>2788.09</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-968</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -4437,27 +4157,25 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F143" s="2" t="n">
+        <v>45901.67946717237</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2142</v>
+        <v>1142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Client_Node_142</t>
+          <t>Company_142</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-491</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -4465,27 +4183,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F144" s="2" t="n">
+        <v>45900.67946717237</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>2143</v>
+        <v>1143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Client_Node_143</t>
+          <t>Company_143</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>1562.27</v>
+        <v>2634.27</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-576</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -4493,83 +4209,77 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F145" s="2" t="n">
+        <v>45899.67946717237</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2144</v>
+        <v>1144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Client_Node_144</t>
+          <t>Company_144</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>500</v>
+        <v>2403.34</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-168</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>45898.67946717237</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2145</v>
+        <v>1145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Client_Node_145</t>
+          <t>Company_145</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1540.79</v>
+        <v>500</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-309</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>45897.67946717237</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2146</v>
+        <v>1146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Client_Node_146</t>
+          <t>Company_146</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>813.1900000000001</v>
+        <v>1789.68</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-523</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -4577,75 +4287,69 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F148" s="2" t="n">
+        <v>45896.67946717237</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2147</v>
+        <v>1147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Client_Node_147</t>
+          <t>Company_147</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>2378.43</v>
+        <v>3558.58</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-137</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>45895.67946717237</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2148</v>
+        <v>1148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Client_Node_148</t>
+          <t>Company_148</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>500</v>
+        <v>4545.67</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-989</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>45894.67946717237</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2149</v>
+        <v>1149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Client_Node_149</t>
+          <t>Company_149</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -4653,7 +4357,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-331</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -4661,111 +4365,103 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F151" s="2" t="n">
+        <v>45893.67946717237</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2150</v>
+        <v>1150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Client_Node_150</t>
+          <t>Company_150</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1128.38</v>
+        <v>500</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>23/08/2025 14:08</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>45892.67946717237</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2151</v>
+        <v>1151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Client_Node_151</t>
+          <t>Company_151</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>895.42</v>
+        <v>0</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-400</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>45891.67946717237</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2152</v>
+        <v>1152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Client_Node_152</t>
+          <t>Company_152</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1880.38</v>
+        <v>0</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-612</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F154" s="2" t="n">
+        <v>45890.67946717237</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2153</v>
+        <v>1153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Client_Node_153</t>
+          <t>Company_153</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>905.8</v>
+        <v>1625.78</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-895</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -4773,83 +4469,77 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F155" s="2" t="n">
+        <v>45889.67946717237</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>2154</v>
+        <v>1154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Client_Node_154</t>
+          <t>Company_154</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1065.69</v>
+        <v>2716.09</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-590</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="n">
+        <v>45888.67946717237</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2155</v>
+        <v>1155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Client_Node_155</t>
+          <t>Company_155</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2393.8</v>
+        <v>500</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-878</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F157" s="2" t="n">
+        <v>45887.67946717237</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2156</v>
+        <v>1156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Client_Node_156</t>
+          <t>Company_156</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>2345.56</v>
+        <v>2882.55</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-193</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -4857,111 +4547,103 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F158" s="2" t="n">
+        <v>45886.67946717237</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2157</v>
+        <v>1157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Client_Node_157</t>
+          <t>Company_157</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>2487.58</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-820</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="n">
+        <v>45885.67946717237</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2158</v>
+        <v>1158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Client_Node_158</t>
+          <t>Company_158</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1469.3</v>
+        <v>0</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-673</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="n">
+        <v>45884.67946717237</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2159</v>
+        <v>1159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Client_Node_159</t>
+          <t>Company_159</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>4406.73</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-294</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="n">
+        <v>45883.67946717237</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>2160</v>
+        <v>1160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Client_Node_160</t>
+          <t>Company_160</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>2425.31</v>
+        <v>2478.67</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-920</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -4969,139 +4651,129 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>13/08/2025 14:08</t>
-        </is>
+      <c r="F162" s="2" t="n">
+        <v>45882.67946717237</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2161</v>
+        <v>1161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Client_Node_161</t>
+          <t>Company_161</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2045.49</v>
+        <v>1619.72</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-907</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F163" s="2" t="n">
+        <v>45881.67946717237</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2162</v>
+        <v>1162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Client_Node_162</t>
+          <t>Company_162</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1540.81</v>
+        <v>3002.62</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-314</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F164" s="2" t="n">
+        <v>45880.67946717237</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2163</v>
+        <v>1163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Client_Node_163</t>
+          <t>Company_163</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>4129.25</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-691</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F165" s="2" t="n">
+        <v>45879.67946717237</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2164</v>
+        <v>1164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Client_Node_164</t>
+          <t>Company_164</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1547.47</v>
+        <v>4096.61</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-693</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F166" s="2" t="n">
+        <v>45878.67946717237</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2165</v>
+        <v>1165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Client_Node_165</t>
+          <t>Company_165</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -5109,27 +4781,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F167" s="2" t="n">
+        <v>45877.67946717237</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2166</v>
+        <v>1166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Client_Node_166</t>
+          <t>Company_166</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>2115.57</v>
+        <v>2919.85</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-762</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -5137,19 +4807,17 @@
           <t>Deactive</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F168" s="2" t="n">
+        <v>45876.67946717237</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>2167</v>
+        <v>1167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Client_Node_167</t>
+          <t>Company_167</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -5157,7 +4825,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-229</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -5165,27 +4833,25 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F169" s="2" t="n">
+        <v>45875.67946717237</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2168</v>
+        <v>1168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Client_Node_168</t>
+          <t>Company_168</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1316.76</v>
+        <v>3323.25</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-374</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -5193,139 +4859,129 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F170" s="2" t="n">
+        <v>45874.67946717237</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2169</v>
+        <v>1169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Client_Node_169</t>
+          <t>Company_169</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1151.37</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-733</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F171" s="2" t="n">
+        <v>45873.67946717237</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>2170</v>
+        <v>1170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Client_Node_170</t>
+          <t>Company_170</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>500</v>
+        <v>2901.5</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-941</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>03/08/2025 14:08</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F172" s="2" t="n">
+        <v>45872.67946717237</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2171</v>
+        <v>1171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Client_Node_171</t>
+          <t>Company_171</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>574.16</v>
+        <v>0</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-325</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F173" s="2" t="n">
+        <v>45871.67946717237</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>2172</v>
+        <v>1172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Client_Node_172</t>
+          <t>Company_172</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>2150.07</v>
+        <v>2847.23</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-810</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F174" s="2" t="n">
+        <v>45870.67946717237</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2173</v>
+        <v>1173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Client_Node_173</t>
+          <t>Company_173</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2471.68</v>
+        <v>1238.17</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-736</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -5333,27 +4989,25 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F175" s="2" t="n">
+        <v>45869.67946717237</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2174</v>
+        <v>1174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Client_Node_174</t>
+          <t>Company_174</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1797.86</v>
+        <v>2814.06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-767</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -5361,55 +5015,51 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F176" s="2" t="n">
+        <v>45868.67946717237</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2175</v>
+        <v>1175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Client_Node_175</t>
+          <t>Company_175</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>704.49</v>
+        <v>500</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-499</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F177" s="2" t="n">
+        <v>45867.67946717237</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2176</v>
+        <v>1176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Client_Node_176</t>
+          <t>Company_176</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2265.88</v>
+        <v>1519.78</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-902</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -5417,19 +5067,17 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F178" s="2" t="n">
+        <v>45866.67946717237</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2177</v>
+        <v>1177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Client_Node_177</t>
+          <t>Company_177</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -5437,7 +5085,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-426</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -5445,139 +5093,129 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F179" s="2" t="n">
+        <v>45865.67946717237</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2178</v>
+        <v>1178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Client_Node_178</t>
+          <t>Company_178</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>2055.28</v>
+        <v>0</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-234</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F180" s="2" t="n">
+        <v>45864.67946717237</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2179</v>
+        <v>1179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Client_Node_179</t>
+          <t>Company_179</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>4364.01</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-621</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F181" s="2" t="n">
+        <v>45863.67946717237</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2180</v>
+        <v>1180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Client_Node_180</t>
+          <t>Company_180</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1190.14</v>
+        <v>2344.97</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>24/07/2025 14:08</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F182" s="2" t="n">
+        <v>45862.67946717237</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>2181</v>
+        <v>1181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Client_Node_181</t>
+          <t>Company_181</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1084.39</v>
+        <v>0</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-198</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F183" s="2" t="n">
+        <v>45861.67946717237</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>2182</v>
+        <v>1182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Client_Node_182</t>
+          <t>Company_182</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>681.11</v>
+        <v>1653.44</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-117</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -5585,19 +5223,17 @@
           <t>Active</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F184" s="2" t="n">
+        <v>45860.67946717237</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2183</v>
+        <v>1183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Client_Node_183</t>
+          <t>Company_183</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -5605,7 +5241,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-462</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -5613,159 +5249,147 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F185" s="2" t="n">
+        <v>45859.67946717237</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2184</v>
+        <v>1184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Client_Node_184</t>
+          <t>Company_184</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>500</v>
+        <v>3778.51</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-260</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F186" s="2" t="n">
+        <v>45858.67946717237</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2185</v>
+        <v>1185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Client_Node_185</t>
+          <t>Company_185</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1569.27</v>
+        <v>500</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-946</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F187" s="2" t="n">
+        <v>45857.67946717237</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2186</v>
+        <v>1186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Client_Node_186</t>
+          <t>Company_186</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1864.91</v>
+        <v>0</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-993</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F188" s="2" t="n">
+        <v>45856.67946717237</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2187</v>
+        <v>1187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Client_Node_187</t>
+          <t>Company_187</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>828.21</v>
+        <v>1759.35</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-837</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F189" s="2" t="n">
+        <v>45855.67946717237</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2188</v>
+        <v>1188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Client_Node_188</t>
+          <t>Company_188</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>500</v>
+        <v>2139.08</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-230</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F190" s="2" t="n">
+        <v>45854.67946717237</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>2189</v>
+        <v>1189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Client_Node_189</t>
+          <t>Company_189</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -5773,7 +5397,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-777</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -5781,290 +5405,268 @@
           <t>Suspend</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+      <c r="F191" s="2" t="n">
+        <v>45853.67946717237</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2190</v>
+        <v>1190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Client_Node_190</t>
+          <t>Company_190</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2486.87</v>
+        <v>500</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>PRJ-202</t>
+          <t>PRJ-795</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>14/07/2025 14:08</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F192" s="2" t="n">
+        <v>45852.67946717237</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2191</v>
+        <v>1191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Client_Node_191</t>
+          <t>Company_191</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>913.71</v>
+        <v>0</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-178</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F193" s="2" t="n">
+        <v>45851.67946717237</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2192</v>
+        <v>1192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Client_Node_192</t>
+          <t>Company_192</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>500</v>
+        <v>2224.85</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>INVALID-CODE</t>
+          <t>PRJ-868</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F194" s="2" t="n">
+        <v>45850.67946717237</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2193</v>
+        <v>1193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Client_Node_193</t>
+          <t>Company_193</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>2196.71</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-867</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F195" s="2" t="n">
+        <v>45849.67946717237</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2194</v>
+        <v>1194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Client_Node_194</t>
+          <t>Company_194</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1803.81</v>
+        <v>0</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-292</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F196" s="2" t="n">
+        <v>45848.67946717237</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2195</v>
+        <v>1195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Client_Node_195</t>
+          <t>Company_195</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1477.94</v>
+        <v>2633.46</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>INVALID-123</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Deactive</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F197" s="2" t="n">
+        <v>45847.67946717237</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>2196</v>
+        <v>1196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Client_Node_196</t>
+          <t>Company_196</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>776.86</v>
+        <v>1538.48</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-576</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F198" s="2" t="n">
+        <v>45846.67946717237</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>2197</v>
+        <v>1197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Client_Node_197</t>
+          <t>Company_197</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1335.75</v>
+        <v>0</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>PRJ-101</t>
+          <t>PRJ-839</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Active</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Suspend</t>
+        </is>
+      </c>
+      <c r="F199" s="2" t="n">
+        <v>45845.67946717237</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2198</v>
+        <v>1198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Client_Node_198</t>
+          <t>Company_198</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>500</v>
+        <v>1333.26</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-330</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="F200" s="2" t="n">
+        <v>45844.67946717237</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>2199</v>
+        <v>1199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Client_Node_199</t>
+          <t>Company_199</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>3108.68</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>PRJ-303</t>
+          <t>PRJ-702</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Suspend</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>2026-01-20 14:08:53</t>
-        </is>
+          <t>Deactive</t>
+        </is>
+      </c>
+      <c r="F201" s="2" t="n">
+        <v>45843.67946717237</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="386">
   <si>
     <t>customr_id</t>
   </si>
@@ -507,9 +507,6 @@
     <t>PRJ-948</t>
   </si>
   <si>
-    <t>Company_79</t>
-  </si>
-  <si>
     <t>PRJ-127</t>
   </si>
   <si>
@@ -1174,6 +1171,12 @@
   </si>
   <si>
     <t>Ab tt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdflkjsldkfnlksdfsdflkjsdflksdlfkjsldkfjn sdvlklsdjflsjdflsjdfl sdlkhjsdlifjsldjf lisjdfoijsdf olisjdfoijsdof </t>
+  </si>
+  <si>
+    <t>hdh</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1184,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1237,7 +1240,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1542,11 +1545,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1736,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2756,7 +2763,7 @@
         <v>124</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
         <v>125</v>
@@ -2996,7 +3003,7 @@
         <v>147</v>
       </c>
       <c r="C73">
-        <v>4874.6400000000003</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
         <v>148</v>
@@ -3153,13 +3160,13 @@
         <v>1079</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="C81">
         <v>2710.22</v>
       </c>
       <c r="D81" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -3173,13 +3180,13 @@
         <v>1080</v>
       </c>
       <c r="B82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C82">
         <v>2107.11</v>
       </c>
       <c r="D82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E82" t="s">
         <v>8</v>
@@ -3193,13 +3200,13 @@
         <v>1081</v>
       </c>
       <c r="B83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C83">
         <v>1389.97</v>
       </c>
       <c r="D83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E83" t="s">
         <v>8</v>
@@ -3213,13 +3220,13 @@
         <v>1082</v>
       </c>
       <c r="B84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84">
         <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -3233,13 +3240,13 @@
         <v>1083</v>
       </c>
       <c r="B85" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85">
         <v>1914.52</v>
       </c>
       <c r="D85" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E85" t="s">
         <v>11</v>
@@ -3253,13 +3260,13 @@
         <v>1084</v>
       </c>
       <c r="B86" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86">
         <v>2435.37</v>
       </c>
       <c r="D86" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E86" t="s">
         <v>11</v>
@@ -3273,13 +3280,13 @@
         <v>1085</v>
       </c>
       <c r="B87" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C87">
         <v>2482.4299999999998</v>
       </c>
       <c r="D87" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E87" t="s">
         <v>8</v>
@@ -3293,13 +3300,13 @@
         <v>1086</v>
       </c>
       <c r="B88" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C88">
         <v>1075.83</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
@@ -3313,13 +3320,13 @@
         <v>1087</v>
       </c>
       <c r="B89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C89">
         <v>4672.28</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E89" t="s">
         <v>8</v>
@@ -3333,13 +3340,13 @@
         <v>1088</v>
       </c>
       <c r="B90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -3353,19 +3360,19 @@
         <v>1089</v>
       </c>
       <c r="B91" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91">
         <v>4921.38</v>
       </c>
       <c r="D91" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E91" t="s">
         <v>11</v>
       </c>
       <c r="F91" s="2">
-        <v>45953.679467172369</v>
+        <v>4654654</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3373,7 +3380,7 @@
         <v>1090</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>2694.9</v>
@@ -3393,13 +3400,13 @@
         <v>1091</v>
       </c>
       <c r="B93" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C93">
         <v>3276.87</v>
       </c>
       <c r="D93" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E93" t="s">
         <v>11</v>
@@ -3413,13 +3420,13 @@
         <v>1092</v>
       </c>
       <c r="B94" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94">
         <v>4512.1499999999996</v>
       </c>
       <c r="D94" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E94" t="s">
         <v>8</v>
@@ -3433,13 +3440,13 @@
         <v>1093</v>
       </c>
       <c r="B95" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C95">
         <v>4301.01</v>
       </c>
       <c r="D95" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
         <v>8</v>
@@ -3453,13 +3460,13 @@
         <v>1094</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C96">
         <v>2085.9899999999998</v>
       </c>
       <c r="D96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E96" t="s">
         <v>11</v>
@@ -3473,13 +3480,13 @@
         <v>1095</v>
       </c>
       <c r="B97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C97">
         <v>500</v>
       </c>
       <c r="D97" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -3493,13 +3500,13 @@
         <v>1096</v>
       </c>
       <c r="B98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98">
         <v>1827.61</v>
       </c>
       <c r="D98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E98" t="s">
         <v>8</v>
@@ -3513,13 +3520,13 @@
         <v>1097</v>
       </c>
       <c r="B99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C99">
         <v>3441.77</v>
       </c>
       <c r="D99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E99" t="s">
         <v>8</v>
@@ -3533,13 +3540,13 @@
         <v>1098</v>
       </c>
       <c r="B100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C100">
         <v>4315.01</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E100" t="s">
         <v>11</v>
@@ -3553,16 +3560,16 @@
         <v>1099</v>
       </c>
       <c r="B101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C101">
         <v>2664.09</v>
       </c>
       <c r="D101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>385</v>
       </c>
       <c r="F101" s="2">
         <v>45943.679467172369</v>
@@ -3573,13 +3580,13 @@
         <v>1100</v>
       </c>
       <c r="B102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C102">
         <v>1912.77</v>
       </c>
       <c r="D102" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E102" t="s">
         <v>11</v>
@@ -3593,13 +3600,13 @@
         <v>1101</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103">
         <v>2133.09</v>
       </c>
       <c r="D103" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3613,13 +3620,13 @@
         <v>1102</v>
       </c>
       <c r="B104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -3633,13 +3640,13 @@
         <v>1103</v>
       </c>
       <c r="B105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C105">
         <v>2218.85</v>
       </c>
       <c r="D105" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -3653,13 +3660,13 @@
         <v>1104</v>
       </c>
       <c r="B106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C106">
         <v>2431.92</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -3673,7 +3680,7 @@
         <v>1105</v>
       </c>
       <c r="B107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C107">
         <v>2346.85</v>
@@ -3693,13 +3700,13 @@
         <v>1106</v>
       </c>
       <c r="B108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C108">
         <v>1011.63</v>
       </c>
       <c r="D108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3713,13 +3720,13 @@
         <v>1107</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C109">
         <v>2950.09</v>
       </c>
       <c r="D109" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3733,13 +3740,13 @@
         <v>1108</v>
       </c>
       <c r="B110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -3753,13 +3760,13 @@
         <v>1109</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C111">
         <v>3558.02</v>
       </c>
       <c r="D111" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3773,13 +3780,13 @@
         <v>1110</v>
       </c>
       <c r="B112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C112">
         <v>2309.16</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3793,13 +3800,13 @@
         <v>1111</v>
       </c>
       <c r="B113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C113">
         <v>2150.69</v>
       </c>
       <c r="D113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3813,13 +3820,13 @@
         <v>1112</v>
       </c>
       <c r="B114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C114">
         <v>1379.48</v>
       </c>
       <c r="D114" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3833,13 +3840,13 @@
         <v>1113</v>
       </c>
       <c r="B115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C115">
         <v>4806.71</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3853,13 +3860,13 @@
         <v>1114</v>
       </c>
       <c r="B116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C116">
         <v>3960.98</v>
       </c>
       <c r="D116" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -3873,13 +3880,13 @@
         <v>1115</v>
       </c>
       <c r="B117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C117">
         <v>500</v>
       </c>
       <c r="D117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -3893,13 +3900,13 @@
         <v>1116</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C118">
         <v>1189.0999999999999</v>
       </c>
       <c r="D118" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3913,13 +3920,13 @@
         <v>1117</v>
       </c>
       <c r="B119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C119">
         <v>2642.77</v>
       </c>
       <c r="D119" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3933,7 +3940,7 @@
         <v>1118</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C120">
         <v>1229.3499999999999</v>
@@ -3953,13 +3960,13 @@
         <v>1119</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -3973,7 +3980,7 @@
         <v>1120</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C122">
         <v>2624.53</v>
@@ -3993,13 +4000,13 @@
         <v>1121</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -4013,13 +4020,13 @@
         <v>1122</v>
       </c>
       <c r="B124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -4033,13 +4040,13 @@
         <v>1123</v>
       </c>
       <c r="B125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -4053,13 +4060,13 @@
         <v>1124</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -4073,13 +4080,13 @@
         <v>1125</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C127">
         <v>500</v>
       </c>
       <c r="D127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -4093,13 +4100,13 @@
         <v>1126</v>
       </c>
       <c r="B128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -4113,7 +4120,7 @@
         <v>1127</v>
       </c>
       <c r="B129" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C129">
         <v>1773.73</v>
@@ -4133,13 +4140,13 @@
         <v>1128</v>
       </c>
       <c r="B130" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C130">
         <v>3098.39</v>
       </c>
       <c r="D130" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -4153,13 +4160,13 @@
         <v>1129</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -4173,7 +4180,7 @@
         <v>1130</v>
       </c>
       <c r="B132" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C132">
         <v>2172</v>
@@ -4193,13 +4200,13 @@
         <v>1131</v>
       </c>
       <c r="B133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C133">
         <v>2920.68</v>
       </c>
       <c r="D133" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4213,13 +4220,13 @@
         <v>1132</v>
       </c>
       <c r="B134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C134">
         <v>4923.3100000000004</v>
       </c>
       <c r="D134" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -4233,13 +4240,13 @@
         <v>1133</v>
       </c>
       <c r="B135" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C135">
         <v>4534.2</v>
       </c>
       <c r="D135" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -4253,13 +4260,13 @@
         <v>1134</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C136">
         <v>1805.47</v>
       </c>
       <c r="D136" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -4273,7 +4280,7 @@
         <v>1135</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C137">
         <v>2173.73</v>
@@ -4293,13 +4300,13 @@
         <v>1136</v>
       </c>
       <c r="B138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -4313,13 +4320,13 @@
         <v>1137</v>
       </c>
       <c r="B139" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -4333,13 +4340,13 @@
         <v>1138</v>
       </c>
       <c r="B140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C140">
         <v>1564.72</v>
       </c>
       <c r="D140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -4353,13 +4360,13 @@
         <v>1139</v>
       </c>
       <c r="B141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C141">
         <v>4770.43</v>
       </c>
       <c r="D141" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -4373,7 +4380,7 @@
         <v>1140</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C142">
         <v>3772.16</v>
@@ -4393,13 +4400,13 @@
         <v>1141</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C143">
         <v>2788.09</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -4413,13 +4420,13 @@
         <v>1142</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -4433,13 +4440,13 @@
         <v>1143</v>
       </c>
       <c r="B145" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C145">
         <v>2634.27</v>
       </c>
       <c r="D145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -4453,13 +4460,13 @@
         <v>1144</v>
       </c>
       <c r="B146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C146">
         <v>2403.34</v>
       </c>
       <c r="D146" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -4473,13 +4480,13 @@
         <v>1145</v>
       </c>
       <c r="B147" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C147">
         <v>500</v>
       </c>
       <c r="D147" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -4493,13 +4500,13 @@
         <v>1146</v>
       </c>
       <c r="B148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C148">
         <v>1789.68</v>
       </c>
       <c r="D148" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -4513,13 +4520,13 @@
         <v>1147</v>
       </c>
       <c r="B149" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C149">
         <v>3558.58</v>
       </c>
       <c r="D149" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -4533,13 +4540,13 @@
         <v>1148</v>
       </c>
       <c r="B150" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C150">
         <v>4545.67</v>
       </c>
       <c r="D150" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -4553,13 +4560,13 @@
         <v>1149</v>
       </c>
       <c r="B151" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C151">
         <v>0</v>
       </c>
       <c r="D151" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E151" t="s">
         <v>14</v>
@@ -4573,7 +4580,7 @@
         <v>1150</v>
       </c>
       <c r="B152" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C152">
         <v>500</v>
@@ -4593,13 +4600,13 @@
         <v>1151</v>
       </c>
       <c r="B153" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -4613,13 +4620,13 @@
         <v>1152</v>
       </c>
       <c r="B154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -4633,13 +4640,13 @@
         <v>1153</v>
       </c>
       <c r="B155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C155">
         <v>1625.78</v>
       </c>
       <c r="D155" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -4653,13 +4660,13 @@
         <v>1154</v>
       </c>
       <c r="B156" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C156">
         <v>2716.09</v>
       </c>
       <c r="D156" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -4673,13 +4680,13 @@
         <v>1155</v>
       </c>
       <c r="B157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C157">
         <v>500</v>
       </c>
       <c r="D157" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -4693,13 +4700,13 @@
         <v>1156</v>
       </c>
       <c r="B158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C158">
         <v>2882.55</v>
       </c>
       <c r="D158" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4713,13 +4720,13 @@
         <v>1157</v>
       </c>
       <c r="B159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C159">
         <v>2487.58</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -4733,13 +4740,13 @@
         <v>1158</v>
       </c>
       <c r="B160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -4753,13 +4760,13 @@
         <v>1159</v>
       </c>
       <c r="B161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C161">
         <v>4406.7299999999996</v>
       </c>
       <c r="D161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -4773,13 +4780,13 @@
         <v>1160</v>
       </c>
       <c r="B162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C162">
         <v>2478.67</v>
       </c>
       <c r="D162" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -4793,13 +4800,13 @@
         <v>1161</v>
       </c>
       <c r="B163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C163">
         <v>1619.72</v>
       </c>
       <c r="D163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -4813,13 +4820,13 @@
         <v>1162</v>
       </c>
       <c r="B164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C164">
         <v>3002.62</v>
       </c>
       <c r="D164" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -4833,13 +4840,13 @@
         <v>1163</v>
       </c>
       <c r="B165" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C165">
         <v>4129.25</v>
       </c>
       <c r="D165" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -4853,13 +4860,13 @@
         <v>1164</v>
       </c>
       <c r="B166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C166">
         <v>4096.6099999999997</v>
       </c>
       <c r="D166" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -4873,7 +4880,7 @@
         <v>1165</v>
       </c>
       <c r="B167" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C167">
         <v>500</v>
@@ -4893,13 +4900,13 @@
         <v>1166</v>
       </c>
       <c r="B168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C168">
         <v>2919.85</v>
       </c>
       <c r="D168" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -4913,13 +4920,13 @@
         <v>1167</v>
       </c>
       <c r="B169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
@@ -4933,13 +4940,13 @@
         <v>1168</v>
       </c>
       <c r="B170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C170">
         <v>3323.25</v>
       </c>
       <c r="D170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -4953,13 +4960,13 @@
         <v>1169</v>
       </c>
       <c r="B171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C171">
         <v>1151.3699999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -4973,13 +4980,13 @@
         <v>1170</v>
       </c>
       <c r="B172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C172">
         <v>2901.5</v>
       </c>
       <c r="D172" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -4993,13 +5000,13 @@
         <v>1171</v>
       </c>
       <c r="B173" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C173">
         <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E173" t="s">
         <v>14</v>
@@ -5013,13 +5020,13 @@
         <v>1172</v>
       </c>
       <c r="B174" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C174">
         <v>2847.23</v>
       </c>
       <c r="D174" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -5033,13 +5040,13 @@
         <v>1173</v>
       </c>
       <c r="B175" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C175">
         <v>1238.17</v>
       </c>
       <c r="D175" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -5053,13 +5060,13 @@
         <v>1174</v>
       </c>
       <c r="B176" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C176">
         <v>2814.06</v>
       </c>
       <c r="D176" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -5073,13 +5080,13 @@
         <v>1175</v>
       </c>
       <c r="B177" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C177">
         <v>500</v>
       </c>
       <c r="D177" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -5093,13 +5100,13 @@
         <v>1176</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C178">
         <v>1519.78</v>
       </c>
       <c r="D178" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -5113,13 +5120,13 @@
         <v>1177</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -5133,13 +5140,13 @@
         <v>1178</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -5153,13 +5160,13 @@
         <v>1179</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C181">
         <v>4364.01</v>
       </c>
       <c r="D181" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -5173,7 +5180,7 @@
         <v>1180</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C182">
         <v>2344.9699999999998</v>
@@ -5193,13 +5200,13 @@
         <v>1181</v>
       </c>
       <c r="B183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -5213,13 +5220,13 @@
         <v>1182</v>
       </c>
       <c r="B184" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C184">
         <v>1653.44</v>
       </c>
       <c r="D184" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -5233,13 +5240,13 @@
         <v>1183</v>
       </c>
       <c r="B185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -5253,13 +5260,13 @@
         <v>1184</v>
       </c>
       <c r="B186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C186">
         <v>3778.51</v>
       </c>
       <c r="D186" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -5273,13 +5280,13 @@
         <v>1185</v>
       </c>
       <c r="B187" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C187">
         <v>500</v>
       </c>
       <c r="D187" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -5293,13 +5300,13 @@
         <v>1186</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -5313,13 +5320,13 @@
         <v>1187</v>
       </c>
       <c r="B189" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C189">
         <v>1759.35</v>
       </c>
       <c r="D189" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -5333,13 +5340,13 @@
         <v>1188</v>
       </c>
       <c r="B190" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C190">
         <v>2139.08</v>
       </c>
       <c r="D190" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -5353,13 +5360,13 @@
         <v>1189</v>
       </c>
       <c r="B191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
@@ -5373,13 +5380,13 @@
         <v>1190</v>
       </c>
       <c r="B192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C192">
         <v>500</v>
       </c>
       <c r="D192" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
@@ -5393,13 +5400,13 @@
         <v>1191</v>
       </c>
       <c r="B193" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -5413,7 +5420,7 @@
         <v>1192</v>
       </c>
       <c r="B194" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C194">
         <v>2224.85</v>
@@ -5433,13 +5440,13 @@
         <v>1193</v>
       </c>
       <c r="B195" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C195">
         <v>2196.71</v>
       </c>
       <c r="D195" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E195" t="s">
         <v>11</v>
@@ -5453,13 +5460,13 @@
         <v>1194</v>
       </c>
       <c r="B196" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -5473,7 +5480,7 @@
         <v>1195</v>
       </c>
       <c r="B197" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C197">
         <v>2633.46</v>
@@ -5493,13 +5500,13 @@
         <v>1196</v>
       </c>
       <c r="B198" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C198">
         <v>1538.48</v>
       </c>
       <c r="D198" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -5513,13 +5520,13 @@
         <v>1197</v>
       </c>
       <c r="B199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -5533,13 +5540,13 @@
         <v>1198</v>
       </c>
       <c r="B200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C200">
         <v>1333.26</v>
       </c>
       <c r="D200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
@@ -5553,13 +5560,13 @@
         <v>1199</v>
       </c>
       <c r="B201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C201">
         <v>3108.68</v>
       </c>
       <c r="D201" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -627,9 +627,6 @@
     <t>PRJ-961</t>
   </si>
   <si>
-    <t>Company_100</t>
-  </si>
-  <si>
     <t>Company_101</t>
   </si>
   <si>
@@ -1177,6 +1174,9 @@
   </si>
   <si>
     <t>hdh</t>
+  </si>
+  <si>
+    <t>hh</t>
   </si>
 </sst>
 </file>
@@ -1545,8 +1545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,7 +1632,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="2">
-        <v>46040.679467172369</v>
+        <v>46040.679467592592</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1712,7 +1712,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2">
-        <v>46036.679467172369</v>
+        <v>46036.679467592592</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1743,7 +1743,7 @@
         <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -3160,7 +3160,7 @@
         <v>1079</v>
       </c>
       <c r="B81" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C81">
         <v>2710.22</v>
@@ -3372,7 +3372,7 @@
         <v>11</v>
       </c>
       <c r="F91" s="2">
-        <v>4654654</v>
+        <v>4654654.2300000004</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,7 +3569,7 @@
         <v>201</v>
       </c>
       <c r="E101" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F101" s="2">
         <v>45943.679467172369</v>
@@ -3580,7 +3580,7 @@
         <v>1100</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>385</v>
       </c>
       <c r="C102">
         <v>1912.77</v>
@@ -3600,13 +3600,13 @@
         <v>1101</v>
       </c>
       <c r="B103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C103">
         <v>2133.09</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" t="s">
         <v>11</v>
@@ -3620,13 +3620,13 @@
         <v>1102</v>
       </c>
       <c r="B104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -3640,13 +3640,13 @@
         <v>1103</v>
       </c>
       <c r="B105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C105">
         <v>2218.85</v>
       </c>
       <c r="D105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E105" t="s">
         <v>8</v>
@@ -3660,13 +3660,13 @@
         <v>1104</v>
       </c>
       <c r="B106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C106">
         <v>2431.92</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E106" t="s">
         <v>8</v>
@@ -3680,7 +3680,7 @@
         <v>1105</v>
       </c>
       <c r="B107" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C107">
         <v>2346.85</v>
@@ -3700,13 +3700,13 @@
         <v>1106</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C108">
         <v>1011.63</v>
       </c>
       <c r="D108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E108" t="s">
         <v>11</v>
@@ -3720,13 +3720,13 @@
         <v>1107</v>
       </c>
       <c r="B109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C109">
         <v>2950.09</v>
       </c>
       <c r="D109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E109" t="s">
         <v>8</v>
@@ -3740,13 +3740,13 @@
         <v>1108</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -3760,13 +3760,13 @@
         <v>1109</v>
       </c>
       <c r="B111" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C111">
         <v>3558.02</v>
       </c>
       <c r="D111" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E111" t="s">
         <v>11</v>
@@ -3780,13 +3780,13 @@
         <v>1110</v>
       </c>
       <c r="B112" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C112">
         <v>2309.16</v>
       </c>
       <c r="D112" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E112" t="s">
         <v>8</v>
@@ -3800,13 +3800,13 @@
         <v>1111</v>
       </c>
       <c r="B113" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C113">
         <v>2150.69</v>
       </c>
       <c r="D113" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E113" t="s">
         <v>11</v>
@@ -3820,13 +3820,13 @@
         <v>1112</v>
       </c>
       <c r="B114" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C114">
         <v>1379.48</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E114" t="s">
         <v>11</v>
@@ -3840,13 +3840,13 @@
         <v>1113</v>
       </c>
       <c r="B115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C115">
         <v>4806.71</v>
       </c>
       <c r="D115" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E115" t="s">
         <v>11</v>
@@ -3860,13 +3860,13 @@
         <v>1114</v>
       </c>
       <c r="B116" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C116">
         <v>3960.98</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E116" t="s">
         <v>8</v>
@@ -3880,13 +3880,13 @@
         <v>1115</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C117">
         <v>500</v>
       </c>
       <c r="D117" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -3900,13 +3900,13 @@
         <v>1116</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C118">
         <v>1189.0999999999999</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E118" t="s">
         <v>8</v>
@@ -3920,13 +3920,13 @@
         <v>1117</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C119">
         <v>2642.77</v>
       </c>
       <c r="D119" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3940,7 +3940,7 @@
         <v>1118</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C120">
         <v>1229.3499999999999</v>
@@ -3960,13 +3960,13 @@
         <v>1119</v>
       </c>
       <c r="B121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -3980,7 +3980,7 @@
         <v>1120</v>
       </c>
       <c r="B122" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C122">
         <v>2624.53</v>
@@ -4000,13 +4000,13 @@
         <v>1121</v>
       </c>
       <c r="B123" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C123">
         <v>0</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -4020,13 +4020,13 @@
         <v>1122</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C124">
         <v>0</v>
       </c>
       <c r="D124" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -4040,13 +4040,13 @@
         <v>1123</v>
       </c>
       <c r="B125" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E125" t="s">
         <v>14</v>
@@ -4060,13 +4060,13 @@
         <v>1124</v>
       </c>
       <c r="B126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C126">
         <v>0</v>
       </c>
       <c r="D126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E126" t="s">
         <v>14</v>
@@ -4080,13 +4080,13 @@
         <v>1125</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C127">
         <v>500</v>
       </c>
       <c r="D127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E127" t="s">
         <v>14</v>
@@ -4100,13 +4100,13 @@
         <v>1126</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E128" t="s">
         <v>14</v>
@@ -4120,7 +4120,7 @@
         <v>1127</v>
       </c>
       <c r="B129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C129">
         <v>1773.73</v>
@@ -4140,13 +4140,13 @@
         <v>1128</v>
       </c>
       <c r="B130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C130">
         <v>3098.39</v>
       </c>
       <c r="D130" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E130" t="s">
         <v>8</v>
@@ -4160,13 +4160,13 @@
         <v>1129</v>
       </c>
       <c r="B131" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C131">
         <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E131" t="s">
         <v>14</v>
@@ -4180,7 +4180,7 @@
         <v>1130</v>
       </c>
       <c r="B132" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C132">
         <v>2172</v>
@@ -4200,13 +4200,13 @@
         <v>1131</v>
       </c>
       <c r="B133" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C133">
         <v>2920.68</v>
       </c>
       <c r="D133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -4220,13 +4220,13 @@
         <v>1132</v>
       </c>
       <c r="B134" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C134">
         <v>4923.3100000000004</v>
       </c>
       <c r="D134" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -4240,13 +4240,13 @@
         <v>1133</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C135">
         <v>4534.2</v>
       </c>
       <c r="D135" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
@@ -4260,13 +4260,13 @@
         <v>1134</v>
       </c>
       <c r="B136" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C136">
         <v>1805.47</v>
       </c>
       <c r="D136" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E136" t="s">
         <v>8</v>
@@ -4280,7 +4280,7 @@
         <v>1135</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C137">
         <v>2173.73</v>
@@ -4300,13 +4300,13 @@
         <v>1136</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E138" t="s">
         <v>14</v>
@@ -4320,13 +4320,13 @@
         <v>1137</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E139" t="s">
         <v>14</v>
@@ -4340,13 +4340,13 @@
         <v>1138</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C140">
         <v>1564.72</v>
       </c>
       <c r="D140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -4360,13 +4360,13 @@
         <v>1139</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C141">
         <v>4770.43</v>
       </c>
       <c r="D141" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E141" t="s">
         <v>8</v>
@@ -4380,7 +4380,7 @@
         <v>1140</v>
       </c>
       <c r="B142" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C142">
         <v>3772.16</v>
@@ -4400,13 +4400,13 @@
         <v>1141</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C143">
         <v>2788.09</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E143" t="s">
         <v>11</v>
@@ -4420,13 +4420,13 @@
         <v>1142</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C144">
         <v>0</v>
       </c>
       <c r="D144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E144" t="s">
         <v>14</v>
@@ -4440,13 +4440,13 @@
         <v>1143</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C145">
         <v>2634.27</v>
       </c>
       <c r="D145" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E145" t="s">
         <v>11</v>
@@ -4460,13 +4460,13 @@
         <v>1144</v>
       </c>
       <c r="B146" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C146">
         <v>2403.34</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E146" t="s">
         <v>8</v>
@@ -4480,13 +4480,13 @@
         <v>1145</v>
       </c>
       <c r="B147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C147">
         <v>500</v>
       </c>
       <c r="D147" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E147" t="s">
         <v>14</v>
@@ -4500,13 +4500,13 @@
         <v>1146</v>
       </c>
       <c r="B148" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C148">
         <v>1789.68</v>
       </c>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E148" t="s">
         <v>11</v>
@@ -4520,13 +4520,13 @@
         <v>1147</v>
       </c>
       <c r="B149" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C149">
         <v>3558.58</v>
       </c>
       <c r="D149" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E149" t="s">
         <v>11</v>
@@ -4540,13 +4540,13 @@
         <v>1148</v>
       </c>
       <c r="B150" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C150">
         <v>4545.67</v>
       </c>
       <c r="D150" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E150" t="s">
         <v>11</v>
@@ -4560,7 +4560,7 @@
         <v>1149</v>
       </c>
       <c r="B151" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -4580,7 +4580,7 @@
         <v>1150</v>
       </c>
       <c r="B152" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C152">
         <v>500</v>
@@ -4600,13 +4600,13 @@
         <v>1151</v>
       </c>
       <c r="B153" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C153">
         <v>0</v>
       </c>
       <c r="D153" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E153" t="s">
         <v>14</v>
@@ -4620,13 +4620,13 @@
         <v>1152</v>
       </c>
       <c r="B154" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C154">
         <v>0</v>
       </c>
       <c r="D154" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E154" t="s">
         <v>14</v>
@@ -4640,13 +4640,13 @@
         <v>1153</v>
       </c>
       <c r="B155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C155">
         <v>1625.78</v>
       </c>
       <c r="D155" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E155" t="s">
         <v>11</v>
@@ -4660,13 +4660,13 @@
         <v>1154</v>
       </c>
       <c r="B156" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C156">
         <v>2716.09</v>
       </c>
       <c r="D156" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E156" t="s">
         <v>11</v>
@@ -4680,13 +4680,13 @@
         <v>1155</v>
       </c>
       <c r="B157" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C157">
         <v>500</v>
       </c>
       <c r="D157" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E157" t="s">
         <v>14</v>
@@ -4700,13 +4700,13 @@
         <v>1156</v>
       </c>
       <c r="B158" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C158">
         <v>2882.55</v>
       </c>
       <c r="D158" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E158" t="s">
         <v>8</v>
@@ -4720,13 +4720,13 @@
         <v>1157</v>
       </c>
       <c r="B159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C159">
         <v>2487.58</v>
       </c>
       <c r="D159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E159" t="s">
         <v>8</v>
@@ -4740,13 +4740,13 @@
         <v>1158</v>
       </c>
       <c r="B160" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C160">
         <v>0</v>
       </c>
       <c r="D160" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E160" t="s">
         <v>14</v>
@@ -4760,13 +4760,13 @@
         <v>1159</v>
       </c>
       <c r="B161" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C161">
         <v>4406.7299999999996</v>
       </c>
       <c r="D161" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E161" t="s">
         <v>11</v>
@@ -4780,13 +4780,13 @@
         <v>1160</v>
       </c>
       <c r="B162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C162">
         <v>2478.67</v>
       </c>
       <c r="D162" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E162" t="s">
         <v>8</v>
@@ -4800,13 +4800,13 @@
         <v>1161</v>
       </c>
       <c r="B163" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C163">
         <v>1619.72</v>
       </c>
       <c r="D163" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E163" t="s">
         <v>8</v>
@@ -4820,13 +4820,13 @@
         <v>1162</v>
       </c>
       <c r="B164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C164">
         <v>3002.62</v>
       </c>
       <c r="D164" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E164" t="s">
         <v>11</v>
@@ -4840,13 +4840,13 @@
         <v>1163</v>
       </c>
       <c r="B165" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165">
         <v>4129.25</v>
       </c>
       <c r="D165" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E165" t="s">
         <v>11</v>
@@ -4860,13 +4860,13 @@
         <v>1164</v>
       </c>
       <c r="B166" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C166">
         <v>4096.6099999999997</v>
       </c>
       <c r="D166" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E166" t="s">
         <v>11</v>
@@ -4880,7 +4880,7 @@
         <v>1165</v>
       </c>
       <c r="B167" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C167">
         <v>500</v>
@@ -4900,13 +4900,13 @@
         <v>1166</v>
       </c>
       <c r="B168" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168">
         <v>2919.85</v>
       </c>
       <c r="D168" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E168" t="s">
         <v>8</v>
@@ -4920,13 +4920,13 @@
         <v>1167</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C169">
         <v>0</v>
       </c>
       <c r="D169" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E169" t="s">
         <v>14</v>
@@ -4940,13 +4940,13 @@
         <v>1168</v>
       </c>
       <c r="B170" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C170">
         <v>3323.25</v>
       </c>
       <c r="D170" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E170" t="s">
         <v>11</v>
@@ -4960,13 +4960,13 @@
         <v>1169</v>
       </c>
       <c r="B171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C171">
         <v>1151.3699999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E171" t="s">
         <v>8</v>
@@ -4980,13 +4980,13 @@
         <v>1170</v>
       </c>
       <c r="B172" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172">
         <v>2901.5</v>
       </c>
       <c r="D172" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E172" t="s">
         <v>8</v>
@@ -5000,7 +5000,7 @@
         <v>1171</v>
       </c>
       <c r="B173" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -5020,13 +5020,13 @@
         <v>1172</v>
       </c>
       <c r="B174" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C174">
         <v>2847.23</v>
       </c>
       <c r="D174" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E174" t="s">
         <v>11</v>
@@ -5040,13 +5040,13 @@
         <v>1173</v>
       </c>
       <c r="B175" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C175">
         <v>1238.17</v>
       </c>
       <c r="D175" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E175" t="s">
         <v>11</v>
@@ -5060,13 +5060,13 @@
         <v>1174</v>
       </c>
       <c r="B176" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C176">
         <v>2814.06</v>
       </c>
       <c r="D176" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E176" t="s">
         <v>11</v>
@@ -5080,13 +5080,13 @@
         <v>1175</v>
       </c>
       <c r="B177" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C177">
         <v>500</v>
       </c>
       <c r="D177" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E177" t="s">
         <v>14</v>
@@ -5100,13 +5100,13 @@
         <v>1176</v>
       </c>
       <c r="B178" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C178">
         <v>1519.78</v>
       </c>
       <c r="D178" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E178" t="s">
         <v>11</v>
@@ -5120,13 +5120,13 @@
         <v>1177</v>
       </c>
       <c r="B179" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C179">
         <v>0</v>
       </c>
       <c r="D179" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E179" t="s">
         <v>14</v>
@@ -5140,13 +5140,13 @@
         <v>1178</v>
       </c>
       <c r="B180" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C180">
         <v>0</v>
       </c>
       <c r="D180" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E180" t="s">
         <v>14</v>
@@ -5160,13 +5160,13 @@
         <v>1179</v>
       </c>
       <c r="B181" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C181">
         <v>4364.01</v>
       </c>
       <c r="D181" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E181" t="s">
         <v>8</v>
@@ -5180,7 +5180,7 @@
         <v>1180</v>
       </c>
       <c r="B182" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C182">
         <v>2344.9699999999998</v>
@@ -5200,13 +5200,13 @@
         <v>1181</v>
       </c>
       <c r="B183" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C183">
         <v>0</v>
       </c>
       <c r="D183" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E183" t="s">
         <v>14</v>
@@ -5220,13 +5220,13 @@
         <v>1182</v>
       </c>
       <c r="B184" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C184">
         <v>1653.44</v>
       </c>
       <c r="D184" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E184" t="s">
         <v>11</v>
@@ -5240,13 +5240,13 @@
         <v>1183</v>
       </c>
       <c r="B185" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C185">
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E185" t="s">
         <v>14</v>
@@ -5260,13 +5260,13 @@
         <v>1184</v>
       </c>
       <c r="B186" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C186">
         <v>3778.51</v>
       </c>
       <c r="D186" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E186" t="s">
         <v>11</v>
@@ -5280,13 +5280,13 @@
         <v>1185</v>
       </c>
       <c r="B187" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C187">
         <v>500</v>
       </c>
       <c r="D187" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E187" t="s">
         <v>14</v>
@@ -5300,13 +5300,13 @@
         <v>1186</v>
       </c>
       <c r="B188" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C188">
         <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E188" t="s">
         <v>14</v>
@@ -5320,13 +5320,13 @@
         <v>1187</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C189">
         <v>1759.35</v>
       </c>
       <c r="D189" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E189" t="s">
         <v>8</v>
@@ -5340,13 +5340,13 @@
         <v>1188</v>
       </c>
       <c r="B190" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C190">
         <v>2139.08</v>
       </c>
       <c r="D190" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E190" t="s">
         <v>11</v>
@@ -5360,13 +5360,13 @@
         <v>1189</v>
       </c>
       <c r="B191" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E191" t="s">
         <v>14</v>
@@ -5380,13 +5380,13 @@
         <v>1190</v>
       </c>
       <c r="B192" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C192">
         <v>500</v>
       </c>
       <c r="D192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E192" t="s">
         <v>14</v>
@@ -5400,13 +5400,13 @@
         <v>1191</v>
       </c>
       <c r="B193" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C193">
         <v>0</v>
       </c>
       <c r="D193" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E193" t="s">
         <v>14</v>
@@ -5420,7 +5420,7 @@
         <v>1192</v>
       </c>
       <c r="B194" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C194">
         <v>2224.85</v>
@@ -5440,13 +5440,13 @@
         <v>1193</v>
       </c>
       <c r="B195" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C195">
         <v>2196.71</v>
       </c>
       <c r="D195" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E195" t="s">
         <v>11</v>
@@ -5460,13 +5460,13 @@
         <v>1194</v>
       </c>
       <c r="B196" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C196">
         <v>0</v>
       </c>
       <c r="D196" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E196" t="s">
         <v>14</v>
@@ -5480,7 +5480,7 @@
         <v>1195</v>
       </c>
       <c r="B197" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C197">
         <v>2633.46</v>
@@ -5500,13 +5500,13 @@
         <v>1196</v>
       </c>
       <c r="B198" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C198">
         <v>1538.48</v>
       </c>
       <c r="D198" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E198" t="s">
         <v>8</v>
@@ -5520,13 +5520,13 @@
         <v>1197</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C199">
         <v>0</v>
       </c>
       <c r="D199" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E199" t="s">
         <v>14</v>
@@ -5540,13 +5540,13 @@
         <v>1198</v>
       </c>
       <c r="B200" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C200">
         <v>1333.26</v>
       </c>
       <c r="D200" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E200" t="s">
         <v>11</v>
@@ -5560,13 +5560,13 @@
         <v>1199</v>
       </c>
       <c r="B201" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C201">
         <v>3108.68</v>
       </c>
       <c r="D201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E201" t="s">
         <v>8</v>
